--- a/raw/data/Markam/Markam.xlsx
+++ b/raw/data/Markam/Markam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibiko/Documents/Developments/DLCE/lexibank/vanuatuvoices/raw/data/Markam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{893C88CA-DC67-ED42-95FA-EF67819FAED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4427B81-20DE-CE44-BF34-2AF1F91D203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{3438463C-3028-7041-80E3-717F3CF66C6D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="984">
   <si>
     <t>Markam Words</t>
   </si>
@@ -1278,6 +1278,1713 @@
   </si>
   <si>
     <t>sister's_daughter</t>
+  </si>
+  <si>
+    <t>fəɾan</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>mbaɾan mʷiɾ</t>
+  </si>
+  <si>
+    <t>lef saed</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>əanmbʷiɾin</t>
+  </si>
+  <si>
+    <t>raet saed</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>mboloxonom</t>
+  </si>
+  <si>
+    <t>lek</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>kəsolsol</t>
+  </si>
+  <si>
+    <t>wokbaot</t>
+  </si>
+  <si>
+    <t>to_walk</t>
+  </si>
+  <si>
+    <t>asal</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>keɸwel</t>
+  </si>
+  <si>
+    <t>kam</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>kindri</t>
+  </si>
+  <si>
+    <t>tanem</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>kaxarta</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>i:met̚</t>
+  </si>
+  <si>
+    <t>toti</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>mbisnaɸ</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>i:pmin</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>ⁿdəɾun</t>
+  </si>
+  <si>
+    <t>baksaed</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>fatⁿ</t>
+  </si>
+  <si>
+    <t>beli</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>mboloŋ</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>mburtan</t>
+  </si>
+  <si>
+    <t>kat</t>
+  </si>
+  <si>
+    <t>guts</t>
+  </si>
+  <si>
+    <t>elemet</t>
+  </si>
+  <si>
+    <t>liva</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>asi</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>breasts</t>
+  </si>
+  <si>
+    <t>mbətəvəɾan</t>
+  </si>
+  <si>
+    <t>sholda</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>ɾoxut</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>sisiʲenʲan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save </t>
+  </si>
+  <si>
+    <t>kəsəʲentak</t>
+  </si>
+  <si>
+    <t>tingting</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>əmatak</t>
+  </si>
+  <si>
+    <t>fraet</t>
+  </si>
+  <si>
+    <t>be_afraid_to_fear</t>
+  </si>
+  <si>
+    <t>eⁿdʳe</t>
+  </si>
+  <si>
+    <t>blad</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>mbelawan</t>
+  </si>
+  <si>
+    <t>nek</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>siɸlen</t>
+  </si>
+  <si>
+    <t>hea</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>onosnoŋ</t>
+  </si>
+  <si>
+    <t>nos</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>ŋaliʲantoŋ</t>
+  </si>
+  <si>
+    <t>pulum win</t>
+  </si>
+  <si>
+    <t>breathe</t>
+  </si>
+  <si>
+    <t>sumsum</t>
+  </si>
+  <si>
+    <t>smelem</t>
+  </si>
+  <si>
+    <t>to_smell</t>
+  </si>
+  <si>
+    <t>mboŋon</t>
+  </si>
+  <si>
+    <t>maot</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>ⁿlitⁿ</t>
+  </si>
+  <si>
+    <t>tut</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>ⁿdemen</t>
+  </si>
+  <si>
+    <t>tang</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>waŋo</t>
+  </si>
+  <si>
+    <t>laf</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>waŋoʷəɾ</t>
+  </si>
+  <si>
+    <t>krae</t>
+  </si>
+  <si>
+    <t>to_cry</t>
+  </si>
+  <si>
+    <t>kiʲok</t>
+  </si>
+  <si>
+    <t>traot</t>
+  </si>
+  <si>
+    <t>to_vomit</t>
+  </si>
+  <si>
+    <t>mpuɾap</t>
+  </si>
+  <si>
+    <t>spet</t>
+  </si>
+  <si>
+    <t>to_spit</t>
+  </si>
+  <si>
+    <t>kakan</t>
+  </si>
+  <si>
+    <t>kakae</t>
+  </si>
+  <si>
+    <t>to_eat</t>
+  </si>
+  <si>
+    <t>kiʲan</t>
+  </si>
+  <si>
+    <t>to_chew</t>
+  </si>
+  <si>
+    <t>kuk</t>
+  </si>
+  <si>
+    <t>kukum</t>
+  </si>
+  <si>
+    <t>to_cook</t>
+  </si>
+  <si>
+    <t>inmin</t>
+  </si>
+  <si>
+    <t>dring</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>kɪʲan</t>
+  </si>
+  <si>
+    <t>kakae brekem</t>
+  </si>
+  <si>
+    <t>to_bite</t>
+  </si>
+  <si>
+    <t>kisisi</t>
+  </si>
+  <si>
+    <t>pulum</t>
+  </si>
+  <si>
+    <t>suck</t>
+  </si>
+  <si>
+    <t>ⁿdləŋanoŋ</t>
+  </si>
+  <si>
+    <t>sorai</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>ɾombit</t>
+  </si>
+  <si>
+    <t>harem</t>
+  </si>
+  <si>
+    <t>to_hear</t>
+  </si>
+  <si>
+    <t>natan</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>kɪlkɪla</t>
+  </si>
+  <si>
+    <t>lukluk</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>matuɾiʲan</t>
+  </si>
+  <si>
+    <t>yon</t>
+  </si>
+  <si>
+    <t>yawn</t>
+  </si>
+  <si>
+    <t>matuɾ</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
+  <si>
+    <t>to_sleep</t>
+  </si>
+  <si>
+    <t>kəmatuɾ ŋgambə</t>
+  </si>
+  <si>
+    <t>lae daon</t>
+  </si>
+  <si>
+    <t>lie_down</t>
+  </si>
+  <si>
+    <t>mbari</t>
+  </si>
+  <si>
+    <t>drim</t>
+  </si>
+  <si>
+    <t>to_dream</t>
+  </si>
+  <si>
+    <t>sɯm</t>
+  </si>
+  <si>
+    <t>staon</t>
+  </si>
+  <si>
+    <t>sit_down</t>
+  </si>
+  <si>
+    <t>kutur</t>
+  </si>
+  <si>
+    <t>stanap</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>sapm</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>mut̚sapmi</t>
+  </si>
+  <si>
+    <t>mu:t</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>momok</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>at̚niⁿda</t>
+  </si>
+  <si>
+    <t>pikinini</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>itana</t>
+  </si>
+  <si>
+    <t>momoto</t>
+  </si>
+  <si>
+    <t>waef</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>haos</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>thatch</t>
+  </si>
+  <si>
+    <t>isanoŋ</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>kitir</t>
+  </si>
+  <si>
+    <t>talem</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>atal</t>
+  </si>
+  <si>
+    <t>rop</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>kipik</t>
+  </si>
+  <si>
+    <t>fasem</t>
+  </si>
+  <si>
+    <t>to_tie</t>
+  </si>
+  <si>
+    <t>somaɸ</t>
+  </si>
+  <si>
+    <t>somap</t>
+  </si>
+  <si>
+    <t>to_sew</t>
+  </si>
+  <si>
+    <t>nitil</t>
+  </si>
+  <si>
+    <t>nidil</t>
+  </si>
+  <si>
+    <t>needle</t>
+  </si>
+  <si>
+    <t>kululaxa</t>
+  </si>
+  <si>
+    <t>ronem ol animol, pijin long bush</t>
+  </si>
+  <si>
+    <t>to_hunt</t>
+  </si>
+  <si>
+    <t>kuluɪ</t>
+  </si>
+  <si>
+    <t>stum</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>kama</t>
+  </si>
+  <si>
+    <t>sperem</t>
+  </si>
+  <si>
+    <t>to_stab_pierce</t>
+  </si>
+  <si>
+    <t>kolop</t>
+  </si>
+  <si>
+    <t>faet</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>kɪɾit</t>
+  </si>
+  <si>
+    <t>kilim</t>
+  </si>
+  <si>
+    <t>to_kill</t>
+  </si>
+  <si>
+    <t>pinok</t>
+  </si>
+  <si>
+    <t>stilim</t>
+  </si>
+  <si>
+    <t>to_steal</t>
+  </si>
+  <si>
+    <t>smashem</t>
+  </si>
+  <si>
+    <t>to_beat</t>
+  </si>
+  <si>
+    <t>imat</t>
+  </si>
+  <si>
+    <t>ded</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>imauɾ</t>
+  </si>
+  <si>
+    <t>laef</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>kumʙə</t>
+  </si>
+  <si>
+    <t>skrasem</t>
+  </si>
+  <si>
+    <t>to_scratch</t>
+  </si>
+  <si>
+    <t>kəteɾ</t>
+  </si>
+  <si>
+    <t>katem</t>
+  </si>
+  <si>
+    <t>to_cut</t>
+  </si>
+  <si>
+    <t>aŋgæ</t>
+  </si>
+  <si>
+    <t>wud</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>kaŋaɾuʷel</t>
+  </si>
+  <si>
+    <t>spletem</t>
+  </si>
+  <si>
+    <t>to_split</t>
+  </si>
+  <si>
+    <t>imaŋgal</t>
+  </si>
+  <si>
+    <t>shap</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>imʙuk</t>
+  </si>
+  <si>
+    <t>no shap</t>
+  </si>
+  <si>
+    <t>blunt</t>
+  </si>
+  <si>
+    <t>kəpeɾ</t>
+  </si>
+  <si>
+    <t>wok</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>kəlap</t>
+  </si>
+  <si>
+    <t>planem</t>
+  </si>
+  <si>
+    <t>to_plant</t>
+  </si>
+  <si>
+    <t>kɪtir</t>
+  </si>
+  <si>
+    <t>jusum</t>
+  </si>
+  <si>
+    <t>to_choose</t>
+  </si>
+  <si>
+    <t>ɪmauɾ</t>
+  </si>
+  <si>
+    <t>kro</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>imbuɾ</t>
+  </si>
+  <si>
+    <t>swolap</t>
+  </si>
+  <si>
+    <t>to_swell</t>
+  </si>
+  <si>
+    <t>kətʙək</t>
+  </si>
+  <si>
+    <t>skwisim</t>
+  </si>
+  <si>
+    <t>to_squeeze</t>
+  </si>
+  <si>
+    <t>kuɸɾuk</t>
+  </si>
+  <si>
+    <t>holem</t>
+  </si>
+  <si>
+    <t>to_hold</t>
+  </si>
+  <si>
+    <t>ki:l</t>
+  </si>
+  <si>
+    <t>dikim</t>
+  </si>
+  <si>
+    <t>to_dig</t>
+  </si>
+  <si>
+    <t>kele</t>
+  </si>
+  <si>
+    <t>pem</t>
+  </si>
+  <si>
+    <t>to_buy</t>
+  </si>
+  <si>
+    <t>mbʷiʲan</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>iʲal</t>
+  </si>
+  <si>
+    <t>flae</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>mbisimbok</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>məsal</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>xris</t>
+  </si>
+  <si>
+    <t>kris</t>
+  </si>
+  <si>
+    <t>grease</t>
+  </si>
+  <si>
+    <t>əmbeɾ</t>
+  </si>
+  <si>
+    <t>longwan</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>ahma:t</t>
+  </si>
+  <si>
+    <t>snek</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>oⁿdalaho</t>
+  </si>
+  <si>
+    <t>wom</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>aʰmal</t>
+  </si>
+  <si>
+    <t>anam</t>
+  </si>
+  <si>
+    <t>moskito</t>
+  </si>
+  <si>
+    <t>mosquito</t>
+  </si>
+  <si>
+    <t>tekel</t>
+  </si>
+  <si>
+    <t>spaeda</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>winiʲek</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>imuɾəm</t>
+  </si>
+  <si>
+    <t>roten</t>
+  </si>
+  <si>
+    <t>rotten</t>
+  </si>
+  <si>
+    <t>mʙutⁿ</t>
+  </si>
+  <si>
+    <t>branj</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>lif</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>ŋgəɾewen</t>
+  </si>
+  <si>
+    <t>ruts</t>
+  </si>
+  <si>
+    <t>roots</t>
+  </si>
+  <si>
+    <t>ɸlawa</t>
+  </si>
+  <si>
+    <t>flaoa</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>əɸʷanŋga</t>
+  </si>
+  <si>
+    <t>frut</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>soxolʲa</t>
+  </si>
+  <si>
+    <t>kras</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>atan</t>
+  </si>
+  <si>
+    <t>kraon</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>aɸat</t>
+  </si>
+  <si>
+    <t>ston</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>vʷiɾisilaɸ</t>
+  </si>
+  <si>
+    <t>sanbij</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>əweɪ</t>
+  </si>
+  <si>
+    <t>wota</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ətaɾtaɾ</t>
+  </si>
+  <si>
+    <t>ron</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>təsəwe</t>
+  </si>
+  <si>
+    <t>solwota</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>mbʷelⁿduŋ</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>laxa</t>
+  </si>
+  <si>
+    <t>bush</t>
+  </si>
+  <si>
+    <t>fwinmese</t>
+  </si>
+  <si>
+    <t>sta, sky</t>
+  </si>
+  <si>
+    <t>sky_star</t>
+  </si>
+  <si>
+    <t>ambasə</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>ahlaŋ</t>
+  </si>
+  <si>
+    <t>klaod</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>ⁿdukap̚</t>
+  </si>
+  <si>
+    <t>mist</t>
+  </si>
+  <si>
+    <t>ɸao</t>
+  </si>
+  <si>
+    <t>ren</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>uɾu:ɾ</t>
+  </si>
+  <si>
+    <t>tanda</t>
+  </si>
+  <si>
+    <t>thanda</t>
+  </si>
+  <si>
+    <t>ilaŋax</t>
+  </si>
+  <si>
+    <t>laetning</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>amala</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>ku:p</t>
+  </si>
+  <si>
+    <t>bloem</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>mɛla</t>
+  </si>
+  <si>
+    <t>imɛsəmæ</t>
+  </si>
+  <si>
+    <t>drae</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>ɛmiŋga</t>
+  </si>
+  <si>
+    <t>wetwet</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>imaɸ̚</t>
+  </si>
+  <si>
+    <t>hevi</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>amʙə</t>
+  </si>
+  <si>
+    <t>faea</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>kəsulak</t>
+  </si>
+  <si>
+    <t>bonem</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>amʙəteltel</t>
+  </si>
+  <si>
+    <t>smok</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>mbisnap̚</t>
+  </si>
+  <si>
+    <t>asis</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>imet</t>
+  </si>
+  <si>
+    <t>blak</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>ijoɸ</t>
+  </si>
+  <si>
+    <t>waet</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>ləmɛʲal</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>ɪlit</t>
+  </si>
+  <si>
+    <t>yelo</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>melmelim</t>
+  </si>
+  <si>
+    <t>grin</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>ilele</t>
+  </si>
+  <si>
+    <t>smol</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>ileplep</t>
+  </si>
+  <si>
+    <t>bigwan</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>imʊ:t</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>imbeɾ</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>imeɾiɸɾiɸ̚</t>
+  </si>
+  <si>
+    <t>tintin</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>ifwon</t>
+  </si>
+  <si>
+    <t>tik</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>ileleh</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>iɾəʲaɾ</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>painful_sick</t>
+  </si>
+  <si>
+    <t>iŋambəɾ</t>
+  </si>
+  <si>
+    <t>shem</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>i:tʲan</t>
+  </si>
+  <si>
+    <t>olfala</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>imeɾeɾex</t>
+  </si>
+  <si>
+    <t>niu</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>iɾivik</t>
+  </si>
+  <si>
+    <t>gud</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>isɛj</t>
+  </si>
+  <si>
+    <t>nogud</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fʷiɾin</t>
+  </si>
+  <si>
+    <t>stret</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>iʲaⁿdɾəʲaⁿdʳ</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>lupat</t>
+  </si>
+  <si>
+    <t>naet</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>lupanal</t>
+  </si>
+  <si>
+    <t>dei</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>aⁿdam</t>
+  </si>
+  <si>
+    <t>yia</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>kisan</t>
+  </si>
+  <si>
+    <t>wataem</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>kulukun</t>
+  </si>
+  <si>
+    <t>haedem</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>kəsak</t>
+  </si>
+  <si>
+    <t>klaem</t>
+  </si>
+  <si>
+    <t>to_climb</t>
+  </si>
+  <si>
+    <t>nalup̚</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>mʙu:t</t>
+  </si>
+  <si>
+    <t>insaed</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>ⁿdʳaka</t>
+  </si>
+  <si>
+    <t>antap</t>
+  </si>
+  <si>
+    <t>ontop</t>
+  </si>
+  <si>
+    <t>lap̚an</t>
+  </si>
+  <si>
+    <t>andanit</t>
+  </si>
+  <si>
+    <t>underneath</t>
+  </si>
+  <si>
+    <t>enaŋ</t>
+  </si>
+  <si>
+    <t>hemia</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>ⁿdeki</t>
+  </si>
+  <si>
+    <t>hemia long we</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>lilə</t>
+  </si>
+  <si>
+    <t>sarem</t>
+  </si>
+  <si>
+    <t>to close</t>
+  </si>
+  <si>
+    <t>saman</t>
+  </si>
+  <si>
+    <t>longwe</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>mbaŋ</t>
+  </si>
+  <si>
+    <t>wea</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>na:</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>hoŋ</t>
+  </si>
+  <si>
+    <t>yu</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>hem</t>
+  </si>
+  <si>
+    <t>him_or_her</t>
+  </si>
+  <si>
+    <t>ŋgit̚</t>
+  </si>
+  <si>
+    <t>yumi</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>kopm̚</t>
+  </si>
+  <si>
+    <t>we (excl)</t>
+  </si>
+  <si>
+    <t>ŋgiⁿdɾu</t>
+  </si>
+  <si>
+    <t>yumitu</t>
+  </si>
+  <si>
+    <t>we (dl)</t>
+  </si>
+  <si>
+    <t>ŋgit̚naniɾuki</t>
+  </si>
+  <si>
+    <t>mitufala</t>
+  </si>
+  <si>
+    <t>we (dl excl)</t>
+  </si>
+  <si>
+    <t>kamaniɾuki</t>
+  </si>
+  <si>
+    <t>yutufala</t>
+  </si>
+  <si>
+    <t>you_dl</t>
+  </si>
+  <si>
+    <t>ŋgoɾanixiʲeɾ</t>
+  </si>
+  <si>
+    <t>olketa</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>iɾnaniɾuki</t>
+  </si>
+  <si>
+    <t>tufala</t>
+  </si>
+  <si>
+    <t>they (dl)</t>
+  </si>
+  <si>
+    <t>ivek</t>
+  </si>
+  <si>
+    <t>wanem</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>asɪ</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>telenan</t>
+  </si>
+  <si>
+    <t>narawan</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>iʲeɾmahmɛ</t>
+  </si>
+  <si>
+    <t>evriwan</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>ka:</t>
+  </si>
+  <si>
+    <t>sipos</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>ʊɸwaɪtana</t>
+  </si>
+  <si>
+    <t>olsem wanem</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>itik</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ⁿdoŋon</t>
+  </si>
+  <si>
+    <t>kaontem</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>sapm̚</t>
+  </si>
+  <si>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>iɾu</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>itl</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>ifat</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>ilim</t>
+  </si>
+  <si>
+    <t>faev</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>sʊut</t>
+  </si>
+  <si>
+    <t>siks</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>sʊuɾu</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>sʲetl</t>
+  </si>
+  <si>
+    <t>eit</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>səfat</t>
+  </si>
+  <si>
+    <t>naen</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>laŋal</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>ŋaləɾu</t>
+  </si>
+  <si>
+    <t>ŋalilim</t>
+  </si>
+  <si>
+    <t>aŋatsapm̚</t>
+  </si>
+  <si>
+    <t>amolitaɾ</t>
   </si>
 </sst>
 </file>
@@ -1319,9 +3026,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AA03D1-40B5-C043-B5CA-5F173AE1C068}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1660,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1671,7 +3379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +3390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +3412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1715,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +3434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +3456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +3467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +3478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1781,7 +3489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1803,7 +3511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1847,7 +3555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1869,7 +3577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1902,7 +3610,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1957,7 +3665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -1968,7 +3676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1979,7 +3687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -1991,7 +3699,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2002,7 +3710,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2013,7 +3721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2024,7 +3732,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2035,7 +3743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2046,7 +3754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2057,7 +3765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -2090,7 +3798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2101,7 +3809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -2112,7 +3820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2123,7 +3831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -2134,7 +3842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -2145,7 +3853,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -2156,7 +3864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2167,7 +3875,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -2178,7 +3886,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -2189,7 +3897,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -2211,7 +3919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>148</v>
       </c>
@@ -2222,7 +3930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -2233,7 +3941,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -2255,7 +3963,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -2266,7 +3974,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -2277,7 +3985,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -2288,7 +3996,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -2299,7 +4007,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -2310,7 +4018,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -2321,7 +4029,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -2332,7 +4040,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -2343,7 +4051,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -2354,7 +4062,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -2376,7 +4084,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -2387,7 +4095,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>196</v>
       </c>
@@ -2398,7 +4106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>199</v>
       </c>
@@ -2409,7 +4117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -2431,7 +4139,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -2442,7 +4150,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -2464,7 +4172,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>217</v>
       </c>
@@ -2475,7 +4183,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -2486,7 +4194,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>220</v>
       </c>
@@ -2552,7 +4260,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>240</v>
       </c>
@@ -2563,7 +4271,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>243</v>
       </c>
@@ -2574,7 +4282,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>246</v>
       </c>
@@ -2585,7 +4293,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>249</v>
       </c>
@@ -2596,7 +4304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>250</v>
       </c>
@@ -2607,7 +4315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>251</v>
       </c>
@@ -2618,7 +4326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>252</v>
       </c>
@@ -2629,7 +4337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>253</v>
       </c>
@@ -2640,7 +4348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>254</v>
       </c>
@@ -2651,7 +4359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>255</v>
       </c>
@@ -2662,7 +4370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>256</v>
       </c>
@@ -2673,7 +4381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>257</v>
       </c>
@@ -2684,7 +4392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>258</v>
       </c>
@@ -2695,7 +4403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>259</v>
       </c>
@@ -2706,7 +4414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>260</v>
       </c>
@@ -2717,7 +4425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>261</v>
       </c>
@@ -2728,7 +4436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>262</v>
       </c>
@@ -2739,7 +4447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>263</v>
       </c>
@@ -2750,7 +4458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>264</v>
       </c>
@@ -2772,7 +4480,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -3419,6 +5127,2283 @@
       </c>
       <c r="C162" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>415</v>
+      </c>
+      <c r="B163" t="s">
+        <v>416</v>
+      </c>
+      <c r="C163" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>418</v>
+      </c>
+      <c r="B164" t="s">
+        <v>419</v>
+      </c>
+      <c r="C164" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>421</v>
+      </c>
+      <c r="B165" t="s">
+        <v>422</v>
+      </c>
+      <c r="C165" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>424</v>
+      </c>
+      <c r="B166" t="s">
+        <v>425</v>
+      </c>
+      <c r="C166" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>427</v>
+      </c>
+      <c r="B167" t="s">
+        <v>428</v>
+      </c>
+      <c r="C167" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>430</v>
+      </c>
+      <c r="B168" t="s">
+        <v>431</v>
+      </c>
+      <c r="C168" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>433</v>
+      </c>
+      <c r="B169" t="s">
+        <v>434</v>
+      </c>
+      <c r="C169" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>436</v>
+      </c>
+      <c r="B170" t="s">
+        <v>437</v>
+      </c>
+      <c r="C170" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>439</v>
+      </c>
+      <c r="B171" t="s">
+        <v>440</v>
+      </c>
+      <c r="C171" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>441</v>
+      </c>
+      <c r="B172" t="s">
+        <v>442</v>
+      </c>
+      <c r="C172" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>444</v>
+      </c>
+      <c r="B173" t="s">
+        <v>445</v>
+      </c>
+      <c r="C173" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>447</v>
+      </c>
+      <c r="B174" t="s">
+        <v>448</v>
+      </c>
+      <c r="C174" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>449</v>
+      </c>
+      <c r="B175" t="s">
+        <v>450</v>
+      </c>
+      <c r="C175" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>452</v>
+      </c>
+      <c r="B176" t="s">
+        <v>453</v>
+      </c>
+      <c r="C176" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>455</v>
+      </c>
+      <c r="B177" t="s">
+        <v>456</v>
+      </c>
+      <c r="C177" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>458</v>
+      </c>
+      <c r="B178" t="s">
+        <v>459</v>
+      </c>
+      <c r="C178" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>461</v>
+      </c>
+      <c r="B179" t="s">
+        <v>462</v>
+      </c>
+      <c r="C179" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>464</v>
+      </c>
+      <c r="B180" t="s">
+        <v>465</v>
+      </c>
+      <c r="C180" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>467</v>
+      </c>
+      <c r="B181" t="s">
+        <v>468</v>
+      </c>
+      <c r="C181" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>470</v>
+      </c>
+      <c r="B182" t="s">
+        <v>471</v>
+      </c>
+      <c r="C182" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>473</v>
+      </c>
+      <c r="B183" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>475</v>
+      </c>
+      <c r="B184" t="s">
+        <v>476</v>
+      </c>
+      <c r="C184" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>478</v>
+      </c>
+      <c r="B185" t="s">
+        <v>479</v>
+      </c>
+      <c r="C185" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>481</v>
+      </c>
+      <c r="B186" t="s">
+        <v>482</v>
+      </c>
+      <c r="C186" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>484</v>
+      </c>
+      <c r="B187" t="s">
+        <v>485</v>
+      </c>
+      <c r="C187" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>487</v>
+      </c>
+      <c r="B188" t="s">
+        <v>488</v>
+      </c>
+      <c r="C188" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>490</v>
+      </c>
+      <c r="B189" t="s">
+        <v>491</v>
+      </c>
+      <c r="C189" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>493</v>
+      </c>
+      <c r="B190" t="s">
+        <v>494</v>
+      </c>
+      <c r="C190" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>496</v>
+      </c>
+      <c r="B191" t="s">
+        <v>497</v>
+      </c>
+      <c r="C191" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>499</v>
+      </c>
+      <c r="B192" t="s">
+        <v>500</v>
+      </c>
+      <c r="C192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>502</v>
+      </c>
+      <c r="B193" t="s">
+        <v>503</v>
+      </c>
+      <c r="C193" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>505</v>
+      </c>
+      <c r="B194" t="s">
+        <v>506</v>
+      </c>
+      <c r="C194" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>508</v>
+      </c>
+      <c r="B195" t="s">
+        <v>509</v>
+      </c>
+      <c r="C195" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>511</v>
+      </c>
+      <c r="B196" t="s">
+        <v>512</v>
+      </c>
+      <c r="C196" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>514</v>
+      </c>
+      <c r="B197" t="s">
+        <v>515</v>
+      </c>
+      <c r="C197" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>517</v>
+      </c>
+      <c r="B198" t="s">
+        <v>518</v>
+      </c>
+      <c r="C198" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>520</v>
+      </c>
+      <c r="B199" t="s">
+        <v>521</v>
+      </c>
+      <c r="C199" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>523</v>
+      </c>
+      <c r="B200" t="s">
+        <v>521</v>
+      </c>
+      <c r="C200" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>525</v>
+      </c>
+      <c r="B201" t="s">
+        <v>526</v>
+      </c>
+      <c r="C201" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>528</v>
+      </c>
+      <c r="B202" t="s">
+        <v>529</v>
+      </c>
+      <c r="C202" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>531</v>
+      </c>
+      <c r="B203" t="s">
+        <v>532</v>
+      </c>
+      <c r="C203" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>534</v>
+      </c>
+      <c r="B204" t="s">
+        <v>535</v>
+      </c>
+      <c r="C204" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>537</v>
+      </c>
+      <c r="B205" t="s">
+        <v>538</v>
+      </c>
+      <c r="C205" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>540</v>
+      </c>
+      <c r="B206" t="s">
+        <v>541</v>
+      </c>
+      <c r="C206" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>543</v>
+      </c>
+      <c r="B207" t="s">
+        <v>544</v>
+      </c>
+      <c r="C207" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>546</v>
+      </c>
+      <c r="B208" t="s">
+        <v>547</v>
+      </c>
+      <c r="C208" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>549</v>
+      </c>
+      <c r="B209" t="s">
+        <v>550</v>
+      </c>
+      <c r="C209" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>552</v>
+      </c>
+      <c r="B210" t="s">
+        <v>553</v>
+      </c>
+      <c r="C210" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>555</v>
+      </c>
+      <c r="B211" t="s">
+        <v>556</v>
+      </c>
+      <c r="C211" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>558</v>
+      </c>
+      <c r="B212" t="s">
+        <v>559</v>
+      </c>
+      <c r="C212" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>561</v>
+      </c>
+      <c r="B213" t="s">
+        <v>562</v>
+      </c>
+      <c r="C213" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>564</v>
+      </c>
+      <c r="B214" t="s">
+        <v>565</v>
+      </c>
+      <c r="C214" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>567</v>
+      </c>
+      <c r="B215" t="s">
+        <v>568</v>
+      </c>
+      <c r="C215" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>570</v>
+      </c>
+      <c r="B216" t="s">
+        <v>568</v>
+      </c>
+      <c r="C216" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>571</v>
+      </c>
+      <c r="B217" t="s">
+        <v>568</v>
+      </c>
+      <c r="C217" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>573</v>
+      </c>
+      <c r="B218" t="s">
+        <v>574</v>
+      </c>
+      <c r="C218" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>576</v>
+      </c>
+      <c r="B219" t="s">
+        <v>577</v>
+      </c>
+      <c r="C219" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>579</v>
+      </c>
+      <c r="B220" t="s">
+        <v>354</v>
+      </c>
+      <c r="C220" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>580</v>
+      </c>
+      <c r="B221" t="s">
+        <v>581</v>
+      </c>
+      <c r="C221" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>397</v>
+      </c>
+      <c r="B222" t="s">
+        <v>300</v>
+      </c>
+      <c r="C222" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>290</v>
+      </c>
+      <c r="B223" t="s">
+        <v>291</v>
+      </c>
+      <c r="C223" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224" t="s">
+        <v>583</v>
+      </c>
+      <c r="C224" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>586</v>
+      </c>
+      <c r="B226" t="s">
+        <v>587</v>
+      </c>
+      <c r="C226" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>589</v>
+      </c>
+      <c r="B227" t="s">
+        <v>590</v>
+      </c>
+      <c r="C227" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>592</v>
+      </c>
+      <c r="B228" t="s">
+        <v>593</v>
+      </c>
+      <c r="C228" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>595</v>
+      </c>
+      <c r="B229" t="s">
+        <v>596</v>
+      </c>
+      <c r="C229" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>598</v>
+      </c>
+      <c r="B230" t="s">
+        <v>599</v>
+      </c>
+      <c r="C230" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>601</v>
+      </c>
+      <c r="B231" t="s">
+        <v>602</v>
+      </c>
+      <c r="C231" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>604</v>
+      </c>
+      <c r="B232" t="s">
+        <v>605</v>
+      </c>
+      <c r="C232" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>607</v>
+      </c>
+      <c r="B233" t="s">
+        <v>608</v>
+      </c>
+      <c r="C233" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>610</v>
+      </c>
+      <c r="B234" t="s">
+        <v>611</v>
+      </c>
+      <c r="C234" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>613</v>
+      </c>
+      <c r="B235" t="s">
+        <v>614</v>
+      </c>
+      <c r="C235" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>616</v>
+      </c>
+      <c r="B236" t="s">
+        <v>617</v>
+      </c>
+      <c r="C236" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>619</v>
+      </c>
+      <c r="B237" t="s">
+        <v>620</v>
+      </c>
+      <c r="C237" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>616</v>
+      </c>
+      <c r="B238" t="s">
+        <v>622</v>
+      </c>
+      <c r="C238" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>624</v>
+      </c>
+      <c r="B239" t="s">
+        <v>625</v>
+      </c>
+      <c r="C239" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>627</v>
+      </c>
+      <c r="B240" t="s">
+        <v>628</v>
+      </c>
+      <c r="C240" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>630</v>
+      </c>
+      <c r="B241" t="s">
+        <v>631</v>
+      </c>
+      <c r="C241" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>633</v>
+      </c>
+      <c r="B242" t="s">
+        <v>634</v>
+      </c>
+      <c r="C242" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>636</v>
+      </c>
+      <c r="B243" t="s">
+        <v>637</v>
+      </c>
+      <c r="C243" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>639</v>
+      </c>
+      <c r="B244" t="s">
+        <v>640</v>
+      </c>
+      <c r="C244" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>642</v>
+      </c>
+      <c r="B245" t="s">
+        <v>643</v>
+      </c>
+      <c r="C245" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>645</v>
+      </c>
+      <c r="B246" t="s">
+        <v>646</v>
+      </c>
+      <c r="C246" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>648</v>
+      </c>
+      <c r="B247" t="s">
+        <v>649</v>
+      </c>
+      <c r="C247" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>651</v>
+      </c>
+      <c r="B248" t="s">
+        <v>652</v>
+      </c>
+      <c r="C248" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>654</v>
+      </c>
+      <c r="B249" t="s">
+        <v>655</v>
+      </c>
+      <c r="C249" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>657</v>
+      </c>
+      <c r="B250" t="s">
+        <v>658</v>
+      </c>
+      <c r="C250" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>660</v>
+      </c>
+      <c r="B251" t="s">
+        <v>661</v>
+      </c>
+      <c r="C251" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>663</v>
+      </c>
+      <c r="B252" t="s">
+        <v>664</v>
+      </c>
+      <c r="C252" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>666</v>
+      </c>
+      <c r="B253" t="s">
+        <v>667</v>
+      </c>
+      <c r="C253" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>669</v>
+      </c>
+      <c r="B254" t="s">
+        <v>670</v>
+      </c>
+      <c r="C254" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>672</v>
+      </c>
+      <c r="B255" t="s">
+        <v>673</v>
+      </c>
+      <c r="C255" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>675</v>
+      </c>
+      <c r="B256" t="s">
+        <v>676</v>
+      </c>
+      <c r="C256" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>677</v>
+      </c>
+      <c r="B257" t="s">
+        <v>678</v>
+      </c>
+      <c r="C257" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>680</v>
+      </c>
+      <c r="B258" t="s">
+        <v>681</v>
+      </c>
+      <c r="C258" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>682</v>
+      </c>
+      <c r="B259" t="s">
+        <v>683</v>
+      </c>
+      <c r="C259" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>685</v>
+      </c>
+      <c r="B260" t="s">
+        <v>686</v>
+      </c>
+      <c r="C260" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>688</v>
+      </c>
+      <c r="B261" t="s">
+        <v>689</v>
+      </c>
+      <c r="C261" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>691</v>
+      </c>
+      <c r="B262" t="s">
+        <v>692</v>
+      </c>
+      <c r="C262" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>694</v>
+      </c>
+      <c r="B263" t="s">
+        <v>695</v>
+      </c>
+      <c r="C263" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>697</v>
+      </c>
+      <c r="B264" t="s">
+        <v>583</v>
+      </c>
+      <c r="C264" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>698</v>
+      </c>
+      <c r="B265" t="s">
+        <v>699</v>
+      </c>
+      <c r="C265" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>701</v>
+      </c>
+      <c r="B266" t="s">
+        <v>702</v>
+      </c>
+      <c r="C266" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>704</v>
+      </c>
+      <c r="B267" t="s">
+        <v>705</v>
+      </c>
+      <c r="C267" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>706</v>
+      </c>
+      <c r="B268" t="s">
+        <v>707</v>
+      </c>
+      <c r="C268" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>709</v>
+      </c>
+      <c r="B269" t="s">
+        <v>710</v>
+      </c>
+      <c r="C269" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>220</v>
+      </c>
+      <c r="B270" t="s">
+        <v>712</v>
+      </c>
+      <c r="C270" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>714</v>
+      </c>
+      <c r="B271" t="s">
+        <v>715</v>
+      </c>
+      <c r="C271" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>717</v>
+      </c>
+      <c r="B272" t="s">
+        <v>718</v>
+      </c>
+      <c r="C272" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>720</v>
+      </c>
+      <c r="B273" t="s">
+        <v>721</v>
+      </c>
+      <c r="C273" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>723</v>
+      </c>
+      <c r="B274" t="s">
+        <v>724</v>
+      </c>
+      <c r="C274" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>726</v>
+      </c>
+      <c r="B275" t="s">
+        <v>727</v>
+      </c>
+      <c r="C275" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>729</v>
+      </c>
+      <c r="B276" t="s">
+        <v>730</v>
+      </c>
+      <c r="C276" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>732</v>
+      </c>
+      <c r="B277" t="s">
+        <v>733</v>
+      </c>
+      <c r="C277" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>735</v>
+      </c>
+      <c r="B278" t="s">
+        <v>736</v>
+      </c>
+      <c r="C278" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>738</v>
+      </c>
+      <c r="B279" t="s">
+        <v>739</v>
+      </c>
+      <c r="C279" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>741</v>
+      </c>
+      <c r="B280" t="s">
+        <v>742</v>
+      </c>
+      <c r="C280" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>744</v>
+      </c>
+      <c r="B281" t="s">
+        <v>744</v>
+      </c>
+      <c r="C281" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>746</v>
+      </c>
+      <c r="B282" t="s">
+        <v>425</v>
+      </c>
+      <c r="C282" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>748</v>
+      </c>
+      <c r="B283" t="s">
+        <v>749</v>
+      </c>
+      <c r="C283" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>750</v>
+      </c>
+      <c r="B284" t="s">
+        <v>751</v>
+      </c>
+      <c r="C284" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>753</v>
+      </c>
+      <c r="B285" t="s">
+        <v>754</v>
+      </c>
+      <c r="C285" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>756</v>
+      </c>
+      <c r="B286" t="s">
+        <v>757</v>
+      </c>
+      <c r="C286" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>759</v>
+      </c>
+      <c r="B287" t="s">
+        <v>760</v>
+      </c>
+      <c r="C287" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>761</v>
+      </c>
+      <c r="B288" t="s">
+        <v>762</v>
+      </c>
+      <c r="C288" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>764</v>
+      </c>
+      <c r="B289" t="s">
+        <v>765</v>
+      </c>
+      <c r="C289" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>767</v>
+      </c>
+      <c r="B290" t="s">
+        <v>768</v>
+      </c>
+      <c r="C290" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>770</v>
+      </c>
+      <c r="B291" t="s">
+        <v>771</v>
+      </c>
+      <c r="C291" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>773</v>
+      </c>
+      <c r="B292" t="s">
+        <v>774</v>
+      </c>
+      <c r="C292" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>776</v>
+      </c>
+      <c r="B293" t="s">
+        <v>771</v>
+      </c>
+      <c r="C293" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>777</v>
+      </c>
+      <c r="B294" t="s">
+        <v>778</v>
+      </c>
+      <c r="C294" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>780</v>
+      </c>
+      <c r="B295" t="s">
+        <v>781</v>
+      </c>
+      <c r="C295" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>783</v>
+      </c>
+      <c r="B296" t="s">
+        <v>784</v>
+      </c>
+      <c r="C296" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>786</v>
+      </c>
+      <c r="B297" t="s">
+        <v>787</v>
+      </c>
+      <c r="C297" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>789</v>
+      </c>
+      <c r="B298" t="s">
+        <v>790</v>
+      </c>
+      <c r="C298" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>792</v>
+      </c>
+      <c r="B299" t="s">
+        <v>793</v>
+      </c>
+      <c r="C299" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>795</v>
+      </c>
+      <c r="B300" t="s">
+        <v>796</v>
+      </c>
+      <c r="C300" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>798</v>
+      </c>
+      <c r="B301" t="s">
+        <v>799</v>
+      </c>
+      <c r="C301" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>801</v>
+      </c>
+      <c r="B302" t="s">
+        <v>802</v>
+      </c>
+      <c r="C302" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>804</v>
+      </c>
+      <c r="B303" t="s">
+        <v>805</v>
+      </c>
+      <c r="C303" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>806</v>
+      </c>
+      <c r="B304" t="s">
+        <v>807</v>
+      </c>
+      <c r="C304" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>809</v>
+      </c>
+      <c r="B305" t="s">
+        <v>810</v>
+      </c>
+      <c r="C305" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>812</v>
+      </c>
+      <c r="B306" t="s">
+        <v>813</v>
+      </c>
+      <c r="C306" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>815</v>
+      </c>
+      <c r="B307" t="s">
+        <v>816</v>
+      </c>
+      <c r="C307" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>818</v>
+      </c>
+      <c r="B308" t="s">
+        <v>819</v>
+      </c>
+      <c r="C308" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>821</v>
+      </c>
+      <c r="B309" t="s">
+        <v>822</v>
+      </c>
+      <c r="C309" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>823</v>
+      </c>
+      <c r="B310" t="s">
+        <v>824</v>
+      </c>
+      <c r="C310" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>826</v>
+      </c>
+      <c r="B311" t="s">
+        <v>827</v>
+      </c>
+      <c r="C311" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>829</v>
+      </c>
+      <c r="B312" t="s">
+        <v>813</v>
+      </c>
+      <c r="C312" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>815</v>
+      </c>
+      <c r="B313" t="s">
+        <v>816</v>
+      </c>
+      <c r="C313" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>831</v>
+      </c>
+      <c r="B314" t="s">
+        <v>832</v>
+      </c>
+      <c r="C314" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>834</v>
+      </c>
+      <c r="B315" t="s">
+        <v>835</v>
+      </c>
+      <c r="C315" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>837</v>
+      </c>
+      <c r="B316" t="s">
+        <v>838</v>
+      </c>
+      <c r="C316" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>840</v>
+      </c>
+      <c r="B317" t="s">
+        <v>841</v>
+      </c>
+      <c r="C317" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>843</v>
+      </c>
+      <c r="B318" t="s">
+        <v>844</v>
+      </c>
+      <c r="C318" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>846</v>
+      </c>
+      <c r="B319" t="s">
+        <v>847</v>
+      </c>
+      <c r="C319" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>849</v>
+      </c>
+      <c r="B320" t="s">
+        <v>850</v>
+      </c>
+      <c r="C320" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>852</v>
+      </c>
+      <c r="B321" t="s">
+        <v>850</v>
+      </c>
+      <c r="C321" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>854</v>
+      </c>
+      <c r="B322" t="s">
+        <v>855</v>
+      </c>
+      <c r="C322" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>857</v>
+      </c>
+      <c r="B323" t="s">
+        <v>858</v>
+      </c>
+      <c r="C323" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>860</v>
+      </c>
+      <c r="B324" t="s">
+        <v>861</v>
+      </c>
+      <c r="C324" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>863</v>
+      </c>
+      <c r="B325" t="s">
+        <v>864</v>
+      </c>
+      <c r="C325" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>866</v>
+      </c>
+      <c r="B326" t="s">
+        <v>867</v>
+      </c>
+      <c r="C326" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>869</v>
+      </c>
+      <c r="B327" t="s">
+        <v>870</v>
+      </c>
+      <c r="C327" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>872</v>
+      </c>
+      <c r="B328" t="s">
+        <v>822</v>
+      </c>
+      <c r="C328" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>874</v>
+      </c>
+      <c r="B329" t="s">
+        <v>875</v>
+      </c>
+      <c r="C329" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>877</v>
+      </c>
+      <c r="B330" t="s">
+        <v>878</v>
+      </c>
+      <c r="C330" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>880</v>
+      </c>
+      <c r="B331" t="s">
+        <v>881</v>
+      </c>
+      <c r="C331" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>883</v>
+      </c>
+      <c r="B332" t="s">
+        <v>884</v>
+      </c>
+      <c r="C332" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>886</v>
+      </c>
+      <c r="B333" t="s">
+        <v>887</v>
+      </c>
+      <c r="C333" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>889</v>
+      </c>
+      <c r="B334" t="s">
+        <v>890</v>
+      </c>
+      <c r="C334" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>892</v>
+      </c>
+      <c r="B335" t="s">
+        <v>893</v>
+      </c>
+      <c r="C335" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>895</v>
+      </c>
+      <c r="B336" t="s">
+        <v>896</v>
+      </c>
+      <c r="C336" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>898</v>
+      </c>
+      <c r="B337" t="s">
+        <v>899</v>
+      </c>
+      <c r="C337" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>900</v>
+      </c>
+      <c r="B338" t="s">
+        <v>901</v>
+      </c>
+      <c r="C338" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>903</v>
+      </c>
+      <c r="B339" t="s">
+        <v>904</v>
+      </c>
+      <c r="C339" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>906</v>
+      </c>
+      <c r="B340" t="s">
+        <v>907</v>
+      </c>
+      <c r="C340" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>909</v>
+      </c>
+      <c r="B341" t="s">
+        <v>907</v>
+      </c>
+      <c r="C341" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>911</v>
+      </c>
+      <c r="B342" t="s">
+        <v>912</v>
+      </c>
+      <c r="C342" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>914</v>
+      </c>
+      <c r="B343" t="s">
+        <v>915</v>
+      </c>
+      <c r="C343" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>917</v>
+      </c>
+      <c r="B344" t="s">
+        <v>918</v>
+      </c>
+      <c r="C344" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>920</v>
+      </c>
+      <c r="B345" t="s">
+        <v>921</v>
+      </c>
+      <c r="C345" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>923</v>
+      </c>
+      <c r="B346" t="s">
+        <v>924</v>
+      </c>
+      <c r="C346" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>926</v>
+      </c>
+      <c r="B347" t="s">
+        <v>927</v>
+      </c>
+      <c r="C347" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>929</v>
+      </c>
+      <c r="B348" t="s">
+        <v>930</v>
+      </c>
+      <c r="C348" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>932</v>
+      </c>
+      <c r="B349" t="s">
+        <v>933</v>
+      </c>
+      <c r="C349" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>935</v>
+      </c>
+      <c r="B350" t="s">
+        <v>936</v>
+      </c>
+      <c r="C350" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>938</v>
+      </c>
+      <c r="B351" t="s">
+        <v>939</v>
+      </c>
+      <c r="C351" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>941</v>
+      </c>
+      <c r="B352" t="s">
+        <v>942</v>
+      </c>
+      <c r="C352" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>944</v>
+      </c>
+      <c r="B353" t="s">
+        <v>945</v>
+      </c>
+      <c r="C353" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>947</v>
+      </c>
+      <c r="B354" t="s">
+        <v>948</v>
+      </c>
+      <c r="C354" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>949</v>
+      </c>
+      <c r="B355" t="s">
+        <v>950</v>
+      </c>
+      <c r="C355" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>952</v>
+      </c>
+      <c r="B356" t="s">
+        <v>953</v>
+      </c>
+      <c r="C356" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>955</v>
+      </c>
+      <c r="B357" t="s">
+        <v>956</v>
+      </c>
+      <c r="C357" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>958</v>
+      </c>
+      <c r="B358" t="s">
+        <v>959</v>
+      </c>
+      <c r="C358" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>961</v>
+      </c>
+      <c r="B359" t="s">
+        <v>962</v>
+      </c>
+      <c r="C359" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>964</v>
+      </c>
+      <c r="B360" t="s">
+        <v>965</v>
+      </c>
+      <c r="C360" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>967</v>
+      </c>
+      <c r="B361" t="s">
+        <v>968</v>
+      </c>
+      <c r="C361" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>970</v>
+      </c>
+      <c r="B362" t="s">
+        <v>971</v>
+      </c>
+      <c r="C362" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>972</v>
+      </c>
+      <c r="B363" t="s">
+        <v>973</v>
+      </c>
+      <c r="C363" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>975</v>
+      </c>
+      <c r="B364" t="s">
+        <v>976</v>
+      </c>
+      <c r="C364" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>978</v>
+      </c>
+      <c r="B365" t="s">
+        <v>979</v>
+      </c>
+      <c r="C365" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>980</v>
+      </c>
+      <c r="B366">
+        <v>20</v>
+      </c>
+      <c r="C366">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>981</v>
+      </c>
+      <c r="B367">
+        <v>50</v>
+      </c>
+      <c r="C367">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>982</v>
+      </c>
+      <c r="B368">
+        <v>100</v>
+      </c>
+      <c r="C368">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>983</v>
+      </c>
+      <c r="B369" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C369" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
